--- a/Electronics/Onboard Battery Charger/Onboard Circuit/BQ24600 board parts list 2.xlsx
+++ b/Electronics/Onboard Battery Charger/Onboard Circuit/BQ24600 board parts list 2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\OneDrive\Documents\GitHub\WU-Team20-AutonomousDrone\Electronics\Onboard Battery Charger\Onboard Circuit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B72D20F5-E0D1-40A1-9A9B-D0F1C60CAEB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{175E740B-6C96-4B99-80FF-1C53FE1D76DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -272,9 +272,6 @@
   </si>
   <si>
     <t>RC0402JR-0710RL YAGEO | Resistors | DigiKey</t>
-  </si>
-  <si>
-    <t>1206W4F1004T5E UNI-ROYAL(Uniroyal Elec) | C17927 - LCSC Electronics</t>
   </si>
   <si>
     <t>SS54 | Slkor(SLKORMICRO Elec.) | Schottky Barrier Diodes (SBD) | JLCPCB</t>
@@ -320,6 +317,9 @@
   </si>
   <si>
     <t>RTT06R01JTP | RALEC | Chip Resistor - Surface Mount | JLCPCB</t>
+  </si>
+  <si>
+    <t>1206W4F9003T5E UNI-ROYAL(Uniroyal Elec) | C422471 - LCSC Electronics</t>
   </si>
 </sst>
 </file>
@@ -774,7 +774,7 @@
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -836,7 +836,7 @@
         <v>24</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="L4" t="s">
         <v>53</v>
@@ -853,7 +853,7 @@
         <v>25</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.55000000000000004">
@@ -929,7 +929,7 @@
         <v>29</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.55000000000000004">
@@ -965,7 +965,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="12" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B13" s="5">
         <v>2</v>
@@ -977,7 +977,7 @@
         <v>45</v>
       </c>
       <c r="I13" s="8" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.55000000000000004">
@@ -991,7 +991,7 @@
         <v>33</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.55000000000000004">
@@ -1005,7 +1005,7 @@
         <v>34</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="J15" s="9"/>
       <c r="M15" s="8" t="s">
@@ -1029,7 +1029,7 @@
         <v>47</v>
       </c>
       <c r="H16" s="8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="M16" s="9" t="s">
         <v>62</v>
@@ -1102,7 +1102,7 @@
         <v>39</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -1171,13 +1171,13 @@
     <hyperlink ref="D24" r:id="rId14" display="https://www.digikey.com/en/products/detail/texas-instruments/BQ24600RVAR/2353319" xr:uid="{B1C25FEE-A919-4B6B-A15F-FA7D357E58DA}"/>
     <hyperlink ref="D12" r:id="rId15" display="https://www.digikey.com/en/products/detail/kemet/C0603C220K5RAC7867/7382078" xr:uid="{C79806F6-A6F5-4E8D-B915-28BC55550FB8}"/>
     <hyperlink ref="D22" r:id="rId16" display="https://www.digikey.com/en/products/detail/yageo/RC0402JR-0710RL/726417" xr:uid="{F35DF8E2-6D53-47CA-8EE9-936BA005EC76}"/>
-    <hyperlink ref="D15" r:id="rId17" display="https://www.lcsc.com/product-detail/Chip-Resistor-Surface-Mount_UNI-ROYAL-Uniroyal-Elec-1206W4F1004T5E_C17927.html" xr:uid="{264C4F67-A66B-4728-89CA-9D1C0E96AF5E}"/>
-    <hyperlink ref="D4" r:id="rId18" display="https://jlcpcb.com/partdetail/slkor_slkormicro_elec-SS54/C513478" xr:uid="{22CFF478-FE50-421C-A218-3EC5A9A22C90}"/>
-    <hyperlink ref="I13" r:id="rId19" xr:uid="{85457FD4-7143-4FE7-B17E-BF64364A28C8}"/>
-    <hyperlink ref="D10" r:id="rId20" display="https://jlcpcb.com/partdetail/TaiyoYuden-UMK212B7105KGT/C92850" xr:uid="{C55F6ABE-4C0E-42EC-8F6D-0C4115C90CDE}"/>
-    <hyperlink ref="H16" r:id="rId21" display="https://www.digikey.com/en/products/detail/yageo/RC0402JR-0756KL/726495" xr:uid="{057C797B-DE50-4ECC-96D0-F781C2EBDDB4}"/>
-    <hyperlink ref="D21" r:id="rId22" display="https://www.digikey.com/en/products/detail/stackpole-electronics-inc/RMCF0402FT100R/1761807" xr:uid="{1FF3C766-CFBC-453B-B68F-51F682349F87}"/>
-    <hyperlink ref="D5" r:id="rId23" display="https://jlcpcb.com/partdetail/Ralec-RTT06R01JTP/C159437" xr:uid="{F02347EA-14E0-411C-9203-FB2EB4C341B1}"/>
+    <hyperlink ref="D4" r:id="rId17" display="https://jlcpcb.com/partdetail/slkor_slkormicro_elec-SS54/C513478" xr:uid="{22CFF478-FE50-421C-A218-3EC5A9A22C90}"/>
+    <hyperlink ref="I13" r:id="rId18" xr:uid="{85457FD4-7143-4FE7-B17E-BF64364A28C8}"/>
+    <hyperlink ref="D10" r:id="rId19" display="https://jlcpcb.com/partdetail/TaiyoYuden-UMK212B7105KGT/C92850" xr:uid="{C55F6ABE-4C0E-42EC-8F6D-0C4115C90CDE}"/>
+    <hyperlink ref="H16" r:id="rId20" display="https://www.digikey.com/en/products/detail/yageo/RC0402JR-0756KL/726495" xr:uid="{057C797B-DE50-4ECC-96D0-F781C2EBDDB4}"/>
+    <hyperlink ref="D21" r:id="rId21" display="https://www.digikey.com/en/products/detail/stackpole-electronics-inc/RMCF0402FT100R/1761807" xr:uid="{1FF3C766-CFBC-453B-B68F-51F682349F87}"/>
+    <hyperlink ref="D5" r:id="rId22" display="https://jlcpcb.com/partdetail/Ralec-RTT06R01JTP/C159437" xr:uid="{F02347EA-14E0-411C-9203-FB2EB4C341B1}"/>
+    <hyperlink ref="D15" r:id="rId23" display="https://www.lcsc.com/product-detail/Chip-Resistor-Surface-Mount_UNI-ROYAL-Uniroyal-Elec-1206W4F9003T5E_C422471.html" xr:uid="{D6924883-445C-40FB-AECF-65BE6749EA17}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId24"/>
